--- a/data/test_case.xlsx
+++ b/data/test_case.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\API_AUTO_TEST_FRAME_LJL\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophia/PycharmProjects/API_AUTO_TEST_FRAME_LJL/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CEC4DDF8-1181-D547-A3BB-86836FF37F22}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="9705"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="27580" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -66,9 +67,6 @@
     <t>case01</t>
   </si>
   <si>
-    <t>测试能否正确执行获取access_token接口</t>
-  </si>
-  <si>
     <t>是</t>
   </si>
   <si>
@@ -99,9 +97,6 @@
     <t>case02</t>
   </si>
   <si>
-    <t>测试能否正确新增用户标签</t>
-  </si>
-  <si>
     <t>否</t>
   </si>
   <si>
@@ -120,87 +115,131 @@
     <t>{"access_token":"(.+?)","expires_in":(.+?)}</t>
   </si>
   <si>
+    <t>创建标签接口</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/cgi-bin/tags/create</t>
+  </si>
+  <si>
+    <t>{"access_token":${token}}</t>
+  </si>
+  <si>
+    <t>case03</t>
+  </si>
+  <si>
+    <t>测试能否正确删除用户标签</t>
+  </si>
+  <si>
+    <t>删除标签接口</t>
+  </si>
+  <si>
+    <t>/cgi-bin/tags/delete</t>
+  </si>
+  <si>
+    <t>json键值对</t>
+  </si>
+  <si>
+    <t>{"errcode":0,"errmsg":"ok"}</t>
+  </si>
+  <si>
     <t>step_02</t>
-  </si>
-  <si>
-    <t>创建标签接口</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>/cgi-bin/tags/create</t>
-  </si>
-  <si>
-    <t>{"access_token":${token}}</t>
-  </si>
-  <si>
-    <t>{"tag" : {"name" : "衡东8888"}}</t>
-  </si>
-  <si>
-    <t>{"tag":{"id":(.+?),"name":"衡东8888"}}</t>
-  </si>
-  <si>
-    <t>测试能否正确删除用户标签</t>
-  </si>
-  <si>
-    <t>删除标签接口</t>
-  </si>
-  <si>
-    <t>/cgi-bin/tags/delete</t>
-  </si>
-  <si>
-    <t>{"tag":{"id":408}}</t>
-  </si>
-  <si>
-    <t>json键值对</t>
-  </si>
-  <si>
-    <t>{"errcode":0,"errmsg":"ok"}</t>
-  </si>
-  <si>
-    <r>
-      <t>case0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/cgi-bin/tags/get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试能否正确获取所有用户创建的标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询用户创建的标签接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取公众号已创建的标签</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试能否正确获取公众号已创建的标签</t>
+    <rPh sb="0" eb="7">
+      <t>huo qu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则取值</t>
+  </si>
+  <si>
+    <t>测试能否正确新增用户标签并且修改标签</t>
+    <rPh sb="0" eb="13">
+      <t>bing q</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>step_03</t>
+  </si>
+  <si>
+    <t>修改标签接口</t>
+    <rPh sb="0" eb="2">
+      <t>xiu gai</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cgi-bin/tags/update</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.access_token</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.tag.id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag" : {"id" : ${tagid}, "name" : "广东"   } }</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag":{"id":(.+?),"name":"衡东023"}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag" : {"name" : "衡东023"}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>step_03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag" : {"name" : "祝融峰"}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag":{"id":(.+?),"name":"祝融峰"}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag":{"id":${tagid}}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,7 +248,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -218,6 +258,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -246,7 +293,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -256,7 +309,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -536,32 +592,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="K9" sqref="J9:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="35.125" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="19.875" customWidth="1"/>
-    <col min="8" max="8" width="26.75" customWidth="1"/>
-    <col min="9" max="9" width="26.375" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="11" width="10.375" customWidth="1"/>
-    <col min="12" max="12" width="14.875" customWidth="1"/>
-    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0.1640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
     <col min="14" max="14" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,286 +661,332 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M3" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="N3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="B4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="5" spans="1:14" ht="18" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="K5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L7" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M7" t="s">
         <v>29</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N7" t="s">
         <v>30</v>
       </c>
-      <c r="M3" t="s">
+    </row>
+    <row r="8" spans="1:14" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N3" t="s">
+      <c r="F8" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="G8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="9" spans="1:14" ht="34" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="I9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" t="s">
         <v>39</v>
       </c>
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N8" t="s">
-        <v>45</v>
-      </c>
+    <row r="11" spans="1:14" ht="26">
+      <c r="H11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"get,post"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"无,正则取值,json取值"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M9" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"无,json键是否存在,json键值对,正则匹配"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C2:C3 C7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8 C2 C4" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/test_case.xlsx
+++ b/data/test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophia/PycharmProjects/API_AUTO_TEST_FRAME_LJL/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CEC4DDF8-1181-D547-A3BB-86836FF37F22}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9148F63F-01DF-EB4F-ACA1-B58C987A5FB2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="460" windowWidth="27580" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,10 +167,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>tags</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>正则取值</t>
   </si>
   <si>
@@ -211,14 +207,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{"tag":{"id":(.+?),"name":"衡东023"}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tag" : {"name" : "衡东023"}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>step_03</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -232,6 +220,18 @@
   </si>
   <si>
     <t>{"tag":{"id":${tagid}}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":(.+?),"name":"铁甲小宝"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag" : {"name" : "衡东025"}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag":{"id":(.+?),"name":"衡东025"}}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="K9" sqref="J9:K10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -726,10 +726,10 @@
         <v>21</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -737,7 +737,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>25</v>
@@ -764,7 +764,7 @@
         <v>27</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M4" t="s">
         <v>29</v>
@@ -793,22 +793,22 @@
         <v>34</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M5" t="s">
         <v>29</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="2" customFormat="1" ht="18" customHeight="1">
@@ -816,25 +816,25 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -906,22 +906,22 @@
         <v>34</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="34" customHeight="1">
@@ -929,7 +929,7 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
@@ -944,10 +944,10 @@
         <v>34</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M9" t="s">
         <v>39</v>

--- a/data/test_case.xlsx
+++ b/data/test_case.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophia/PycharmProjects/API_AUTO_TEST_FRAME_LJL/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\API_AUTO_TEST_FRAME_LJL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9148F63F-01DF-EB4F-ACA1-B58C987A5FB2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="27580" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="465" windowWidth="27585" windowHeight="17535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -211,14 +210,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{"tag" : {"name" : "祝融峰"}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tag":{"id":(.+?),"name":"祝融峰"}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>{"tag":{"id":${tagid}}}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -227,19 +218,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{"tag" : {"name" : "衡东025"}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tag":{"id":(.+?),"name":"衡东025"}}</t>
+    <t>{"tag":{"id":(.+?),"name":"祝融峰02"}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag" : {"name" : "祝融峰02"}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag":{"id":(.+?),"name":"石湾02"}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag" : {"name" : "石湾02"}}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -592,32 +591,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0.1640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="0.125" customWidth="1"/>
+    <col min="8" max="8" width="26.625" customWidth="1"/>
+    <col min="9" max="9" width="26.375" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="14.875" customWidth="1"/>
+    <col min="13" max="13" width="14.125" customWidth="1"/>
     <col min="14" max="14" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -703,7 +702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -729,10 +728,10 @@
         <v>29</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -773,7 +772,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -793,7 +792,7 @@
         <v>34</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J5" t="s">
         <v>26</v>
@@ -808,10 +807,10 @@
         <v>29</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="6" spans="1:14" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -845,7 +844,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="17" customHeight="1">
+    <row r="7" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
@@ -886,7 +885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" ht="17" customHeight="1">
+    <row r="8" spans="1:14" s="4" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -906,7 +905,7 @@
         <v>34</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>26</v>
@@ -921,10 +920,10 @@
         <v>29</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="34" customHeight="1">
+    <row r="9" spans="1:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -944,7 +943,7 @@
         <v>34</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
         <v>45</v>
@@ -956,7 +955,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="26">
+    <row r="11" spans="1:14" ht="25.5" x14ac:dyDescent="0.15">
       <c r="H11" s="1"/>
     </row>
   </sheetData>
@@ -973,16 +972,16 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
       <formula1>"get,post"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J9" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J9">
       <formula1>"无,正则取值,json取值"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M9" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M9">
       <formula1>"无,json键是否存在,json键值对,正则匹配"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8 C2 C4" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8 C2 C4">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/test_case.xlsx
+++ b/data/test_case.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -81,9 +81,6 @@
     <t>/cgi-bin/token</t>
   </si>
   <si>
-    <t>{"grant_type":"client_credential","appid":"wx55614004f367f8ca","secret":"65515b46dd758dfdb09420bb7db2c67f"}</t>
-  </si>
-  <si>
     <t>无</t>
   </si>
   <si>
@@ -145,25 +142,25 @@
   </si>
   <si>
     <t>step_02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/cgi-bin/tags/get</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获取公众号已创建的标签</t>
     <rPh sb="0" eb="1">
       <t>huo qu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>测试能否正确获取公众号已创建的标签</t>
     <rPh sb="0" eb="7">
       <t>huo qu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>正则取值</t>
@@ -173,7 +170,7 @@
     <rPh sb="0" eb="13">
       <t>bing q</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>step_03</t>
@@ -183,74 +180,114 @@
     <rPh sb="0" eb="2">
       <t>xiu gai</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/cgi-bin/tags/update</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>$.access_token</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>$.tag.id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tagid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag":{"id":${tagid}}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag":{"id":(.+?),"name":"祝融峰02"}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag" : {"name" : "祝融峰02"}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag" : {"name" : "石湾03"}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag":{"id":(.+?),"name":"石湾03"}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试获取标签下粉丝列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取标签下粉丝列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"access_token":${token}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"grant_type":"client_credential","appid":"wx3465fb2ad43d9bb8","secret":"a940067445269e2f8549ddae17808ff6"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":(.+?),"name":"广西"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.tags[2].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{"tagid":${tag_id},"next_openid":""} </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"tag" : {"id" : ${tagid}, "name" : "广东"   } }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>step_03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tag":{"id":${tagid}}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id":(.+?),"name":"铁甲小宝"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tag":{"id":(.+?),"name":"祝融峰02"}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tag" : {"name" : "祝融峰02"}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tag":{"id":(.+?),"name":"石湾02"}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tag" : {"name" : "石湾02"}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":(.+?),"name":"(.+?)","count":(.+?)}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cgi-bin/user/tag/get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"count":(.+?),"data":{"openid":["(.+?)","(.+?)","(.+?)","(.+?)"] },"next_openid":"(.+?)"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"access_token":"(.+?)","expires_in":(.+?)}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -292,7 +329,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -302,7 +342,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -311,10 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -592,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -606,9 +649,9 @@
     <col min="4" max="4" width="13.375" customWidth="1"/>
     <col min="5" max="5" width="9.375" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="0.125" customWidth="1"/>
-    <col min="8" max="8" width="26.625" customWidth="1"/>
-    <col min="9" max="9" width="26.375" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="18.375" customWidth="1"/>
+    <col min="9" max="9" width="17.875" customWidth="1"/>
     <col min="10" max="10" width="8.875" customWidth="1"/>
     <col min="11" max="11" width="10.375" customWidth="1"/>
     <col min="12" max="12" width="14.875" customWidth="1"/>
@@ -661,13 +704,13 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
@@ -676,70 +719,70 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
         <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>43</v>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>42</v>
+      <c r="G3" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>56</v>
+        <v>28</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -753,103 +796,103 @@
       <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
+      <c r="H4" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>50</v>
+      <c r="L4" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
         <v>29</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3" t="s">
-        <v>41</v>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>60</v>
+      <c r="I5" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="L5" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="M5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>59</v>
+        <v>28</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="2" t="s">
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
+      <c r="H6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>15</v>
@@ -866,100 +909,211 @@
       <c r="G7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" t="s">
-        <v>20</v>
+      <c r="H7" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
         <v>26</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>27</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>28</v>
       </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" t="s">
-        <v>30</v>
+      <c r="N7" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" s="3" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="I8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>57</v>
+      <c r="L8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="3" t="s">
-        <v>54</v>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
         <v>37</v>
       </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" t="s">
         <v>38</v>
       </c>
-      <c r="H9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>39</v>
       </c>
-      <c r="N9" t="s">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="H11" s="1"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
@@ -970,22 +1124,22 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F12">
       <formula1>"get,post"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J12">
       <formula1>"无,正则取值,json取值"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M12">
       <formula1>"无,json键是否存在,json键值对,正则匹配"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8 C2 C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C8 C2 C4 C10:C11">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/test_case.xlsx
+++ b/data/test_case.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -207,22 +207,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"tag":{"id":(.+?),"name":"祝融峰02"}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tag" : {"name" : "祝融峰02"}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tag" : {"name" : "石湾03"}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tag":{"id":(.+?),"name":"石湾03"}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>case04</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -243,7 +227,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"id":(.+?),"name":"广西"}</t>
+    <t xml:space="preserve">{"tagid":${tag_id},"next_openid":""} </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag" : {"id" : ${tagid}, "name" : "广东"   } }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cgi-bin/user/tag/get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"access_token":"(.+?)","expires_in":(.+?)}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -251,31 +251,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">{"tagid":${tag_id},"next_openid":""} </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tag" : {"id" : ${tagid}, "name" : "广东"   } }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag_id</t>
+    <t>{"id":136,"name":"广西","count":4}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>json键值对</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"count":4,"data":{"openid":["oxDyMjgel9LJxoaiZMl-NTldjMhA","oxDyMjtslGrlSYHSZx94HDO9pbPQ","oxDyMjq9tmbaZZkRakJy6m6ah22U","oxDyMjgUWtn7RNdld1V1w9_2YZnY"]},"next_openid":"oxDyMjgUWtn7RNdld1V1w9_2YZnY"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag" : {"name" : "祝融峰04"}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag":{"id":(.+?),"name":"祝融峰04"}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag":{"id":(.+?),"name":"石湾04"}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag" : {"name" : "石湾04"}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.tags[2].id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"id":(.+?),"name":"(.+?)","count":(.+?)}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/cgi-bin/user/tag/get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"count":(.+?),"data":{"openid":["(.+?)","(.+?)","(.+?)","(.+?)"] },"next_openid":"(.+?)"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"access_token":"(.+?)","expires_in":(.+?)}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -329,7 +337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -350,6 +358,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -637,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -704,13 +715,13 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
@@ -726,7 +737,7 @@
         <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
@@ -746,9 +757,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
@@ -767,21 +778,24 @@
       <c r="J3" t="s">
         <v>20</v>
       </c>
+      <c r="L3" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="M3" t="s">
         <v>28</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
@@ -797,7 +811,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
         <v>25</v>
@@ -816,9 +830,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
@@ -835,7 +849,7 @@
         <v>33</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
         <v>25</v>
@@ -850,13 +864,13 @@
         <v>28</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
@@ -873,7 +887,7 @@
         <v>33</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>44</v>
@@ -888,13 +902,13 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
@@ -910,7 +924,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J7" t="s">
         <v>25</v>
@@ -925,13 +939,13 @@
         <v>28</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
@@ -948,7 +962,7 @@
         <v>33</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>25</v>
@@ -963,13 +977,13 @@
         <v>28</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="2" t="s">
         <v>52</v>
       </c>
@@ -999,13 +1013,13 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -1021,7 +1035,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6" t="s">
@@ -1041,9 +1055,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
@@ -1057,56 +1071,56 @@
         <v>41</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>28</v>
+      <c r="M11" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7"/>
+    <row r="12" spans="1:14" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="2"/>
-      <c r="M12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>70</v>
+      <c r="M12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data/test_case.xlsx
+++ b/data/test_case.xlsx
@@ -649,7 +649,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
